--- a/meta/en/3-4-1.xlsx
+++ b/meta/en/3-4-1.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -116,9 +115,6 @@
     <t>+996 (0312) 32 46 36</t>
   </si>
   <si>
-    <t xml:space="preserve">www.stat.kg </t>
-  </si>
-  <si>
     <t>Mortality rate attributed to cardiovascular disease, cancer, diabetes or chronic respiratory disease per 1,000 population.</t>
   </si>
   <si>
@@ -157,6 +153,9 @@
 http://www.stat.kg/ru/about/pravovye-osnovy-organov-gosudarstvennoj-statistiki/; https://unstats.un.org/sdgs/Metadata; http://www.stat.kg/ru/statistics/download/methodology/68/. 
 National Statistical Committee publications: «Social economic situation of the Kyrgyz Republic» monthly report, statistical collections: «Statistical Yearbook of the Kyrgyz Republic”, «Demographic yearbook of the Kyrgyz Republic», «Social trends of the Kyrgyz Republic», «Women and men of the Kyrgyz Republic», «Health of population and healthcare in the Kyrgyz Republic» available on the official website of NSC KR: http://www.stat.kg/ru/publications/
 KR National SDG Reporting Platform: https://sustainabledevelopment-kyrgyzstan.github.io</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
   </si>
 </sst>
 </file>
@@ -565,7 +564,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,7 +647,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -662,7 +661,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -670,7 +669,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -678,7 +677,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -692,7 +691,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -700,7 +699,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -714,7 +713,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -722,7 +721,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="63" customHeight="1" x14ac:dyDescent="0.25">
@@ -730,7 +729,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -744,7 +743,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -752,7 +751,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -760,7 +759,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -768,7 +767,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
